--- a/punto_4.xlsx
+++ b/punto_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lator\Documents\workspace\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6749AAF9-F03B-4FC7-9A5E-36CEEB407399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB6117F2-2E23-4727-B323-3D91F41A90A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
   <si>
     <t>pivot</t>
   </si>
@@ -43,7 +43,7 @@
     <t>0.61980642139303</t>
   </si>
   <si>
-    <t>0.9534</t>
+    <t>0.955</t>
   </si>
   <si>
     <t>pivot_2</t>
@@ -52,7 +52,7 @@
     <t>0.614470737764349</t>
   </si>
   <si>
-    <t>0.9528</t>
+    <t>0.9498</t>
   </si>
   <si>
     <t>pivot_3</t>
@@ -61,49 +61,37 @@
     <t>0.357845404236729</t>
   </si>
   <si>
-    <t>0.952</t>
+    <t>0.9484</t>
   </si>
   <si>
     <t>0.356799390286126</t>
   </si>
   <si>
-    <t>0.949</t>
+    <t>0.945</t>
   </si>
   <si>
     <t>0.196000000000019</t>
   </si>
   <si>
-    <t>0.9522</t>
+    <t>0.9468</t>
   </si>
   <si>
     <t>0.195824782511175</t>
   </si>
   <si>
+    <t>0.9472</t>
+  </si>
+  <si>
     <t>0.0619806421393033</t>
   </si>
   <si>
-    <t>0.956</t>
+    <t>0.9474</t>
   </si>
   <si>
     <t>0.0619740664085953</t>
   </si>
   <si>
-    <t>0.9558</t>
-  </si>
-  <si>
-    <t>0.9556</t>
-  </si>
-  <si>
-    <t>0.9454</t>
-  </si>
-  <si>
-    <t>0.955</t>
-  </si>
-  <si>
-    <t>0.9524</t>
-  </si>
-  <si>
-    <t>0.95</t>
+    <t>0.9464</t>
   </si>
 </sst>
 </file>
@@ -966,10 +954,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1122,7 +1107,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,7 +1124,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,10 +1155,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,7 +1209,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,7 +1277,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1326,7 +1311,7 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1343,7 +1328,7 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1357,10 +1342,10 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1374,10 +1359,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1391,16 +1376,17 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/punto_4.xlsx
+++ b/punto_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lator\Documents\workspace\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB6117F2-2E23-4727-B323-3D91F41A90A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C11E3E-49E4-493A-891A-86A96FDE6F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>pivot</t>
   </si>
@@ -49,21 +49,33 @@
     <t>pivot_2</t>
   </si>
   <si>
+    <t>0.149779999999995</t>
+  </si>
+  <si>
+    <t>0.9494</t>
+  </si>
+  <si>
+    <t>pivot_3</t>
+  </si>
+  <si>
     <t>0.614470737764349</t>
   </si>
   <si>
     <t>0.9498</t>
   </si>
   <si>
-    <t>pivot_3</t>
-  </si>
-  <si>
     <t>0.357845404236729</t>
   </si>
   <si>
     <t>0.9484</t>
   </si>
   <si>
+    <t>0.0499266666666646</t>
+  </si>
+  <si>
+    <t>0.9468</t>
+  </si>
+  <si>
     <t>0.356799390286126</t>
   </si>
   <si>
@@ -73,7 +85,10 @@
     <t>0.196000000000019</t>
   </si>
   <si>
-    <t>0.9468</t>
+    <t>0.0149779999999994</t>
+  </si>
+  <si>
+    <t>0.9508</t>
   </si>
   <si>
     <t>0.195824782511175</t>
@@ -88,10 +103,22 @@
     <t>0.9474</t>
   </si>
   <si>
+    <t>0.0014978000000001</t>
+  </si>
+  <si>
+    <t>0.9476</t>
+  </si>
+  <si>
     <t>0.0619740664085953</t>
   </si>
   <si>
     <t>0.9464</t>
+  </si>
+  <si>
+    <t>0.149779999999994</t>
+  </si>
+  <si>
+    <t>0.0499266666666647</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1036,10 +1063,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,10 +1080,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1070,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1104,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,10 +1148,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,10 +1165,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,10 +1182,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,10 +1199,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1223,10 +1250,10 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,10 +1267,10 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,10 +1301,10 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1291,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1308,10 +1335,10 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1342,10 +1369,10 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1359,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1376,10 +1403,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
